--- a/raw_data/all_data.xlsx
+++ b/raw_data/all_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lance.noel\Desktop\important\fruit_anlaysis\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D024D99-1DB2-473B-A377-5E62D2CF9355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3436D673-8E43-4043-BA5A-8428BDAD317B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{925F1497-18F4-4D72-9FB7-5853596A5A47}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Kier</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>Daniel</t>
+  </si>
+  <si>
+    <t>Anjelica</t>
   </si>
 </sst>
 </file>
@@ -572,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324CB061-CAAA-4A80-8843-E7A82ECBBAC5}">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD26" sqref="AD26"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,7 +586,7 @@
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -641,8 +644,11 @@
       <c r="S1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -700,8 +706,11 @@
       <c r="S2">
         <v>-99</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -759,8 +768,11 @@
       <c r="S3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -818,8 +830,11 @@
       <c r="S4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -877,8 +892,11 @@
       <c r="S5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -936,8 +954,11 @@
       <c r="S6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -995,8 +1016,11 @@
       <c r="S7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1054,8 +1078,11 @@
       <c r="S8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1113,8 +1140,11 @@
       <c r="S9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1172,8 +1202,11 @@
       <c r="S10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1231,8 +1264,11 @@
       <c r="S11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1290,8 +1326,11 @@
       <c r="S12">
         <v>-99</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1349,8 +1388,11 @@
       <c r="S13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1408,8 +1450,11 @@
       <c r="S14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1467,8 +1512,11 @@
       <c r="S15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1526,8 +1574,11 @@
       <c r="S16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1585,8 +1636,11 @@
       <c r="S17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1644,8 +1698,11 @@
       <c r="S18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1703,8 +1760,11 @@
       <c r="S19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1762,8 +1822,11 @@
       <c r="S20">
         <v>-99</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1821,8 +1884,11 @@
       <c r="S21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1880,8 +1946,11 @@
       <c r="S22">
         <v>-99</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1939,8 +2008,11 @@
       <c r="S23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2070,11 @@
       <c r="S24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2057,8 +2132,11 @@
       <c r="S25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2116,8 +2194,11 @@
       <c r="S26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2175,8 +2256,11 @@
       <c r="S27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2234,8 +2318,11 @@
       <c r="S28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2293,8 +2380,11 @@
       <c r="S29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2352,8 +2442,11 @@
       <c r="S30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2411,8 +2504,11 @@
       <c r="S31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -2470,8 +2566,11 @@
       <c r="S32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2529,8 +2628,11 @@
       <c r="S33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -2588,8 +2690,11 @@
       <c r="S34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -2647,8 +2752,11 @@
       <c r="S35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2706,8 +2814,11 @@
       <c r="S36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2765,8 +2876,11 @@
       <c r="S37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -2824,8 +2938,11 @@
       <c r="S38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -2883,8 +3000,11 @@
       <c r="S39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -2942,8 +3062,11 @@
       <c r="S40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -3001,8 +3124,11 @@
       <c r="S41">
         <v>-99</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -3060,8 +3186,11 @@
       <c r="S42">
         <v>-99</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -3119,8 +3248,11 @@
       <c r="S43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -3176,6 +3308,9 @@
         <v>-99</v>
       </c>
       <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
         <v>1</v>
       </c>
     </row>

--- a/raw_data/all_data.xlsx
+++ b/raw_data/all_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lance.noel\Desktop\important\fruit_anlaysis\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3436D673-8E43-4043-BA5A-8428BDAD317B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A58A83-F94D-4C34-AC96-AB755B977574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{925F1497-18F4-4D72-9FB7-5853596A5A47}"/>
+    <workbookView xWindow="-38510" yWindow="-10770" windowWidth="38620" windowHeight="21220" xr2:uid="{925F1497-18F4-4D72-9FB7-5853596A5A47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Kier</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>Anjelica</t>
+  </si>
+  <si>
+    <t>Dee Dee</t>
   </si>
 </sst>
 </file>
@@ -575,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324CB061-CAAA-4A80-8843-E7A82ECBBAC5}">
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,7 +589,7 @@
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -647,8 +650,11 @@
       <c r="T1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -709,8 +715,11 @@
       <c r="T2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -771,8 +780,11 @@
       <c r="T3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -833,8 +845,11 @@
       <c r="T4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -895,8 +910,11 @@
       <c r="T5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -957,8 +975,11 @@
       <c r="T6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1040,11 @@
       <c r="T7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1081,8 +1105,11 @@
       <c r="T8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1170,11 @@
       <c r="T9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1205,8 +1235,11 @@
       <c r="T10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1267,8 +1300,11 @@
       <c r="T11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1329,8 +1365,11 @@
       <c r="T12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1391,8 +1430,11 @@
       <c r="T13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1453,8 +1495,11 @@
       <c r="T14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1560,11 @@
       <c r="T15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1577,8 +1625,11 @@
       <c r="T16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1639,8 +1690,11 @@
       <c r="T17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1701,8 +1755,11 @@
       <c r="T18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1763,8 +1820,11 @@
       <c r="T19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1825,8 +1885,11 @@
       <c r="T20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1887,8 +1950,11 @@
       <c r="T21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1949,8 +2015,11 @@
       <c r="T22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2011,8 +2080,11 @@
       <c r="T23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2073,8 +2145,11 @@
       <c r="T24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2135,8 +2210,11 @@
       <c r="T25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2275,11 @@
       <c r="T26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2259,8 +2340,11 @@
       <c r="T27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2321,8 +2405,11 @@
       <c r="T28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2383,8 +2470,11 @@
       <c r="T29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2445,8 +2535,11 @@
       <c r="T30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2507,8 +2600,11 @@
       <c r="T31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -2569,8 +2665,11 @@
       <c r="T32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2631,8 +2730,11 @@
       <c r="T33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -2693,8 +2795,11 @@
       <c r="T34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -2755,8 +2860,11 @@
       <c r="T35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2817,8 +2925,11 @@
       <c r="T36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2879,8 +2990,11 @@
       <c r="T37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -2941,8 +3055,11 @@
       <c r="T38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -3003,8 +3120,11 @@
       <c r="T39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -3065,8 +3185,11 @@
       <c r="T40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -3127,8 +3250,11 @@
       <c r="T41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -3189,8 +3315,11 @@
       <c r="T42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -3251,8 +3380,11 @@
       <c r="T43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -3311,6 +3443,9 @@
         <v>1</v>
       </c>
       <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
         <v>1</v>
       </c>
     </row>

--- a/raw_data/all_data.xlsx
+++ b/raw_data/all_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lance.noel\Desktop\important\fruit_anlaysis\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A58A83-F94D-4C34-AC96-AB755B977574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550F90CE-8D99-4F19-B806-097AA874FE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-10770" windowWidth="38620" windowHeight="21220" xr2:uid="{925F1497-18F4-4D72-9FB7-5853596A5A47}"/>
   </bookViews>
@@ -581,7 +581,7 @@
   <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z37" sqref="Z37"/>
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/raw_data/all_data.xlsx
+++ b/raw_data/all_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lance.noel\Desktop\important\fruit_anlaysis\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550F90CE-8D99-4F19-B806-097AA874FE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FFC914-DE36-48DB-91DB-CD596BAD9092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-10770" windowWidth="38620" windowHeight="21220" xr2:uid="{925F1497-18F4-4D72-9FB7-5853596A5A47}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Kier</t>
   </si>
@@ -227,6 +227,15 @@
   </si>
   <si>
     <t>Dee Dee</t>
+  </si>
+  <si>
+    <t>Amber</t>
+  </si>
+  <si>
+    <t>Shira</t>
+  </si>
+  <si>
+    <t>Scott</t>
   </si>
 </sst>
 </file>
@@ -578,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324CB061-CAAA-4A80-8843-E7A82ECBBAC5}">
-  <dimension ref="A1:U44"/>
+  <dimension ref="A1:X44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+      <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,7 +598,7 @@
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -653,8 +662,17 @@
       <c r="U1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -718,8 +736,17 @@
       <c r="U2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>4</v>
+      </c>
+      <c r="X2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -783,8 +810,17 @@
       <c r="U3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>5</v>
+      </c>
+      <c r="X3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -848,8 +884,17 @@
       <c r="U4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>5</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -913,8 +958,17 @@
       <c r="U5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -978,8 +1032,17 @@
       <c r="U6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>5</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1043,8 +1106,17 @@
       <c r="U7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <v>4</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1108,8 +1180,17 @@
       <c r="U8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>4</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1173,8 +1254,17 @@
       <c r="U9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>4</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1238,8 +1328,17 @@
       <c r="U10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V10">
+        <v>4</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1303,8 +1402,17 @@
       <c r="U11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="W11">
+        <v>4</v>
+      </c>
+      <c r="X11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1368,8 +1476,17 @@
       <c r="U12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V12">
+        <v>5</v>
+      </c>
+      <c r="W12">
+        <v>-99</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1433,8 +1550,17 @@
       <c r="U13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V13">
+        <v>4</v>
+      </c>
+      <c r="W13">
+        <v>4</v>
+      </c>
+      <c r="X13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1498,8 +1624,17 @@
       <c r="U14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V14">
+        <v>5</v>
+      </c>
+      <c r="W14">
+        <v>5</v>
+      </c>
+      <c r="X14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1563,8 +1698,17 @@
       <c r="U15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V15">
+        <v>4</v>
+      </c>
+      <c r="W15">
+        <v>4</v>
+      </c>
+      <c r="X15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1628,8 +1772,17 @@
       <c r="U16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V16">
+        <v>4</v>
+      </c>
+      <c r="W16">
+        <v>5</v>
+      </c>
+      <c r="X16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1693,8 +1846,17 @@
       <c r="U17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V17">
+        <v>5</v>
+      </c>
+      <c r="W17">
+        <v>4</v>
+      </c>
+      <c r="X17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1758,8 +1920,17 @@
       <c r="U18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V18">
+        <v>5</v>
+      </c>
+      <c r="W18">
+        <v>4</v>
+      </c>
+      <c r="X18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1823,8 +1994,17 @@
       <c r="U19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1888,8 +2068,17 @@
       <c r="U20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>5</v>
+      </c>
+      <c r="X20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1953,8 +2142,17 @@
       <c r="U21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V21">
+        <v>4</v>
+      </c>
+      <c r="W21">
+        <v>4</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2018,8 +2216,17 @@
       <c r="U22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V22">
+        <v>4</v>
+      </c>
+      <c r="W22">
+        <v>2</v>
+      </c>
+      <c r="X22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2083,8 +2290,17 @@
       <c r="U23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V23">
+        <v>5</v>
+      </c>
+      <c r="W23">
+        <v>5</v>
+      </c>
+      <c r="X23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2148,8 +2364,17 @@
       <c r="U24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>4</v>
+      </c>
+      <c r="X24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2213,8 +2438,17 @@
       <c r="U25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>4</v>
+      </c>
+      <c r="X25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2278,8 +2512,17 @@
       <c r="U26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>4</v>
+      </c>
+      <c r="X26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2343,8 +2586,17 @@
       <c r="U27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V27">
+        <v>3</v>
+      </c>
+      <c r="W27">
+        <v>3</v>
+      </c>
+      <c r="X27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2408,8 +2660,17 @@
       <c r="U28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V28">
+        <v>5</v>
+      </c>
+      <c r="W28">
+        <v>4</v>
+      </c>
+      <c r="X28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2473,8 +2734,17 @@
       <c r="U29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2538,8 +2808,17 @@
       <c r="U30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>5</v>
+      </c>
+      <c r="X30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2603,8 +2882,17 @@
       <c r="U31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V31">
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <v>2</v>
+      </c>
+      <c r="X31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -2668,8 +2956,17 @@
       <c r="U32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V32">
+        <v>2</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2733,8 +3030,17 @@
       <c r="U33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <v>3</v>
+      </c>
+      <c r="X33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -2798,8 +3104,17 @@
       <c r="U34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V34">
+        <v>3</v>
+      </c>
+      <c r="W34">
+        <v>3</v>
+      </c>
+      <c r="X34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -2863,8 +3178,17 @@
       <c r="U35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V35">
+        <v>2</v>
+      </c>
+      <c r="W35">
+        <v>4</v>
+      </c>
+      <c r="X35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2928,8 +3252,17 @@
       <c r="U36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V36">
+        <v>4</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2993,8 +3326,17 @@
       <c r="U37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V37">
+        <v>3</v>
+      </c>
+      <c r="W37">
+        <v>3</v>
+      </c>
+      <c r="X37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -3058,8 +3400,17 @@
       <c r="U38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V38">
+        <v>3</v>
+      </c>
+      <c r="W38">
+        <v>-99</v>
+      </c>
+      <c r="X38">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -3123,8 +3474,17 @@
       <c r="U39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V39">
+        <v>3</v>
+      </c>
+      <c r="W39">
+        <v>3</v>
+      </c>
+      <c r="X39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -3188,8 +3548,17 @@
       <c r="U40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>3</v>
+      </c>
+      <c r="X40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -3253,8 +3622,17 @@
       <c r="U41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V41">
+        <v>3</v>
+      </c>
+      <c r="W41">
+        <v>-99</v>
+      </c>
+      <c r="X41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -3318,8 +3696,17 @@
       <c r="U42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <v>-99</v>
+      </c>
+      <c r="X42">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -3383,8 +3770,17 @@
       <c r="U43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>5</v>
+      </c>
+      <c r="X43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -3446,6 +3842,15 @@
         <v>1</v>
       </c>
       <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>3</v>
+      </c>
+      <c r="W44">
+        <v>2</v>
+      </c>
+      <c r="X44">
         <v>1</v>
       </c>
     </row>

--- a/raw_data/all_data.xlsx
+++ b/raw_data/all_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lance.noel\Desktop\important\fruit_anlaysis\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FFC914-DE36-48DB-91DB-CD596BAD9092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A2C221-65B0-43ED-8CAF-3B1628B070AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-10770" windowWidth="38620" windowHeight="21220" xr2:uid="{925F1497-18F4-4D72-9FB7-5853596A5A47}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Kier</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Scott</t>
+  </si>
+  <si>
+    <t>Julie</t>
   </si>
 </sst>
 </file>
@@ -587,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324CB061-CAAA-4A80-8843-E7A82ECBBAC5}">
-  <dimension ref="A1:X44"/>
+  <dimension ref="A1:Y44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,7 +601,7 @@
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -671,8 +674,11 @@
       <c r="X1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -745,8 +751,11 @@
       <c r="X2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -819,8 +828,11 @@
       <c r="X3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -893,8 +905,11 @@
       <c r="X4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -967,8 +982,11 @@
       <c r="X5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1041,8 +1059,11 @@
       <c r="X6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1115,8 +1136,11 @@
       <c r="X7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1189,8 +1213,11 @@
       <c r="X8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1263,8 +1290,11 @@
       <c r="X9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1337,8 +1367,11 @@
       <c r="X10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1411,8 +1444,11 @@
       <c r="X11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1485,8 +1521,11 @@
       <c r="X12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1559,8 +1598,11 @@
       <c r="X13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1633,8 +1675,11 @@
       <c r="X14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1707,8 +1752,11 @@
       <c r="X15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1781,8 +1829,11 @@
       <c r="X16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1855,8 +1906,11 @@
       <c r="X17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1929,8 +1983,11 @@
       <c r="X18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2003,8 +2060,11 @@
       <c r="X19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2077,8 +2137,11 @@
       <c r="X20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2151,8 +2214,11 @@
       <c r="X21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2225,8 +2291,11 @@
       <c r="X22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2299,8 +2368,11 @@
       <c r="X23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2373,8 +2445,11 @@
       <c r="X24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2522,11 @@
       <c r="X25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2521,8 +2599,11 @@
       <c r="X26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2595,8 +2676,11 @@
       <c r="X27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2669,8 +2753,11 @@
       <c r="X28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2743,8 +2830,11 @@
       <c r="X29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2817,8 +2907,11 @@
       <c r="X30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2891,8 +2984,11 @@
       <c r="X31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -2965,8 +3061,11 @@
       <c r="X32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -3039,8 +3138,11 @@
       <c r="X33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -3113,8 +3215,11 @@
       <c r="X34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -3187,8 +3292,11 @@
       <c r="X35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -3261,8 +3369,11 @@
       <c r="X36">
         <v>-99</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -3335,8 +3446,11 @@
       <c r="X37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -3409,8 +3523,11 @@
       <c r="X38">
         <v>-99</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -3483,8 +3600,11 @@
       <c r="X39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -3557,8 +3677,11 @@
       <c r="X40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -3631,8 +3754,11 @@
       <c r="X41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -3705,8 +3831,11 @@
       <c r="X42">
         <v>-99</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -3779,8 +3908,11 @@
       <c r="X43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -3851,6 +3983,9 @@
         <v>2</v>
       </c>
       <c r="X44">
+        <v>1</v>
+      </c>
+      <c r="Y44">
         <v>1</v>
       </c>
     </row>

--- a/raw_data/all_data.xlsx
+++ b/raw_data/all_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lance.noel\Desktop\important\fruit_anlaysis\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A2C221-65B0-43ED-8CAF-3B1628B070AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5864A11E-6D52-4BF0-8F62-F304F4C11720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-10770" windowWidth="38620" windowHeight="21220" xr2:uid="{925F1497-18F4-4D72-9FB7-5853596A5A47}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Kier</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>Julie</t>
+  </si>
+  <si>
+    <t>Mina</t>
   </si>
 </sst>
 </file>
@@ -590,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324CB061-CAAA-4A80-8843-E7A82ECBBAC5}">
-  <dimension ref="A1:Y44"/>
+  <dimension ref="A1:Z44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+      <selection activeCell="Z44" sqref="Z44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,7 +604,7 @@
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -677,8 +680,11 @@
       <c r="Y1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -754,8 +760,11 @@
       <c r="Y2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z2">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -831,8 +840,11 @@
       <c r="Y3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -908,8 +920,11 @@
       <c r="Y4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -985,8 +1000,11 @@
       <c r="Y5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1062,8 +1080,11 @@
       <c r="Y6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1139,8 +1160,11 @@
       <c r="Y7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1216,8 +1240,11 @@
       <c r="Y8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1293,8 +1320,11 @@
       <c r="Y9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1370,8 +1400,11 @@
       <c r="Y10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1447,8 +1480,11 @@
       <c r="Y11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1524,8 +1560,11 @@
       <c r="Y12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z12">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1601,8 +1640,11 @@
       <c r="Y13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1678,8 +1720,11 @@
       <c r="Y14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1755,8 +1800,11 @@
       <c r="Y15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1832,8 +1880,11 @@
       <c r="Y16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1909,8 +1960,11 @@
       <c r="Y17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1986,8 +2040,11 @@
       <c r="Y18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2063,8 +2120,11 @@
       <c r="Y19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z19">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2140,8 +2200,11 @@
       <c r="Y20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2217,8 +2280,11 @@
       <c r="Y21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2294,8 +2360,11 @@
       <c r="Y22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z22">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2371,8 +2440,11 @@
       <c r="Y23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2448,8 +2520,11 @@
       <c r="Y24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2525,8 +2600,11 @@
       <c r="Y25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2602,8 +2680,11 @@
       <c r="Y26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2679,8 +2760,11 @@
       <c r="Y27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2756,8 +2840,11 @@
       <c r="Y28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2833,8 +2920,11 @@
       <c r="Y29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2910,8 +3000,11 @@
       <c r="Y30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2987,8 +3080,11 @@
       <c r="Y31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -3064,8 +3160,11 @@
       <c r="Y32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -3141,8 +3240,11 @@
       <c r="Y33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -3218,8 +3320,11 @@
       <c r="Y34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -3295,8 +3400,11 @@
       <c r="Y35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -3372,8 +3480,11 @@
       <c r="Y36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z36">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -3449,8 +3560,11 @@
       <c r="Y37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -3526,8 +3640,11 @@
       <c r="Y38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z38">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -3603,8 +3720,11 @@
       <c r="Y39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -3680,8 +3800,11 @@
       <c r="Y40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -3757,8 +3880,11 @@
       <c r="Y41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z41">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -3834,8 +3960,11 @@
       <c r="Y42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z42">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -3911,8 +4040,11 @@
       <c r="Y43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -3987,6 +4119,9 @@
       </c>
       <c r="Y44">
         <v>1</v>
+      </c>
+      <c r="Z44">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data/all_data.xlsx
+++ b/raw_data/all_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lance.noel\Desktop\important\fruit_anlaysis\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5864A11E-6D52-4BF0-8F62-F304F4C11720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906BA2DE-3C6F-43C0-8500-78EC0B900D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-10770" windowWidth="38620" windowHeight="21220" xr2:uid="{925F1497-18F4-4D72-9FB7-5853596A5A47}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Kier</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Mina</t>
+  </si>
+  <si>
+    <t>Cori</t>
   </si>
 </sst>
 </file>
@@ -297,9 +300,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -337,7 +340,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -443,7 +446,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -585,7 +588,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -593,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324CB061-CAAA-4A80-8843-E7A82ECBBAC5}">
-  <dimension ref="A1:Z44"/>
+  <dimension ref="A1:AA44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z44" sqref="Z44"/>
+      <selection activeCell="AA45" sqref="AA45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,7 +607,7 @@
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -683,8 +686,11 @@
       <c r="Z1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -763,8 +769,11 @@
       <c r="Z2">
         <v>-99</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -843,8 +852,11 @@
       <c r="Z3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -923,8 +935,11 @@
       <c r="Z4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1003,8 +1018,11 @@
       <c r="Z5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1083,8 +1101,11 @@
       <c r="Z6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1163,8 +1184,11 @@
       <c r="Z7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1243,8 +1267,11 @@
       <c r="Z8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1323,8 +1350,11 @@
       <c r="Z9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1403,8 +1433,11 @@
       <c r="Z10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1483,8 +1516,11 @@
       <c r="Z11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1563,8 +1599,11 @@
       <c r="Z12">
         <v>-99</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1643,8 +1682,11 @@
       <c r="Z13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1723,8 +1765,11 @@
       <c r="Z14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1803,8 +1848,11 @@
       <c r="Z15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1883,8 +1931,11 @@
       <c r="Z16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1963,8 +2014,11 @@
       <c r="Z17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2043,8 +2097,11 @@
       <c r="Z18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2123,8 +2180,11 @@
       <c r="Z19">
         <v>-99</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2203,8 +2263,11 @@
       <c r="Z20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2283,8 +2346,11 @@
       <c r="Z21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2363,8 +2429,11 @@
       <c r="Z22">
         <v>-99</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2443,8 +2512,11 @@
       <c r="Z23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2523,8 +2595,11 @@
       <c r="Z24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2603,8 +2678,11 @@
       <c r="Z25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2683,8 +2761,11 @@
       <c r="Z26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2763,8 +2844,11 @@
       <c r="Z27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2843,8 +2927,11 @@
       <c r="Z28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2923,8 +3010,11 @@
       <c r="Z29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -3003,8 +3093,11 @@
       <c r="Z30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -3083,8 +3176,11 @@
       <c r="Z31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -3163,8 +3259,11 @@
       <c r="Z32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -3243,8 +3342,11 @@
       <c r="Z33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -3323,8 +3425,11 @@
       <c r="Z34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -3403,8 +3508,11 @@
       <c r="Z35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -3483,8 +3591,11 @@
       <c r="Z36">
         <v>-99</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -3563,8 +3674,11 @@
       <c r="Z37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -3643,8 +3757,11 @@
       <c r="Z38">
         <v>-99</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -3723,8 +3840,11 @@
       <c r="Z39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -3803,8 +3923,11 @@
       <c r="Z40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -3883,8 +4006,11 @@
       <c r="Z41">
         <v>-99</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -3963,8 +4089,11 @@
       <c r="Z42">
         <v>-99</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -4043,8 +4172,11 @@
       <c r="Z43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -4122,6 +4254,9 @@
       </c>
       <c r="Z44">
         <v>4</v>
+      </c>
+      <c r="AA44">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data/all_data.xlsx
+++ b/raw_data/all_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lance.noel\Desktop\important\fruit_anlaysis\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906BA2DE-3C6F-43C0-8500-78EC0B900D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F4C171-E34D-46BC-BFED-B98B3A59DA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-10770" windowWidth="38620" windowHeight="21220" xr2:uid="{925F1497-18F4-4D72-9FB7-5853596A5A47}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Kier</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>Cori</t>
+  </si>
+  <si>
+    <t>Talia</t>
   </si>
 </sst>
 </file>
@@ -596,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324CB061-CAAA-4A80-8843-E7A82ECBBAC5}">
-  <dimension ref="A1:AA44"/>
+  <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA45" sqref="AA45"/>
+      <selection activeCell="AB43" sqref="AB43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,7 +610,7 @@
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -689,8 +692,11 @@
       <c r="AA1" t="s">
         <v>69</v>
       </c>
+      <c r="AB1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -772,8 +778,11 @@
       <c r="AA2">
         <v>1</v>
       </c>
+      <c r="AB2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -855,8 +864,11 @@
       <c r="AA3">
         <v>4</v>
       </c>
+      <c r="AB3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -938,8 +950,11 @@
       <c r="AA4">
         <v>2</v>
       </c>
+      <c r="AB4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1021,8 +1036,11 @@
       <c r="AA5">
         <v>5</v>
       </c>
+      <c r="AB5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1104,8 +1122,11 @@
       <c r="AA6">
         <v>2</v>
       </c>
+      <c r="AB6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1187,8 +1208,11 @@
       <c r="AA7">
         <v>5</v>
       </c>
+      <c r="AB7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1270,8 +1294,11 @@
       <c r="AA8">
         <v>3</v>
       </c>
+      <c r="AB8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1353,8 +1380,11 @@
       <c r="AA9">
         <v>4</v>
       </c>
+      <c r="AB9">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1436,8 +1466,11 @@
       <c r="AA10">
         <v>2</v>
       </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1519,8 +1552,11 @@
       <c r="AA11">
         <v>3</v>
       </c>
+      <c r="AB11">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1602,8 +1638,11 @@
       <c r="AA12">
         <v>1</v>
       </c>
+      <c r="AB12">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1685,8 +1724,11 @@
       <c r="AA13">
         <v>2</v>
       </c>
+      <c r="AB13">
+        <v>5</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1768,8 +1810,11 @@
       <c r="AA14">
         <v>1</v>
       </c>
+      <c r="AB14">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1851,8 +1896,11 @@
       <c r="AA15">
         <v>3</v>
       </c>
+      <c r="AB15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1934,8 +1982,11 @@
       <c r="AA16">
         <v>5</v>
       </c>
+      <c r="AB16">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2017,8 +2068,11 @@
       <c r="AA17">
         <v>5</v>
       </c>
+      <c r="AB17">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2100,8 +2154,11 @@
       <c r="AA18">
         <v>5</v>
       </c>
+      <c r="AB18">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2183,8 +2240,11 @@
       <c r="AA19">
         <v>4</v>
       </c>
+      <c r="AB19">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2266,8 +2326,11 @@
       <c r="AA20">
         <v>4</v>
       </c>
+      <c r="AB20">
+        <v>5</v>
+      </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2349,8 +2412,11 @@
       <c r="AA21">
         <v>2</v>
       </c>
+      <c r="AB21">
+        <v>5</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2432,8 +2498,11 @@
       <c r="AA22">
         <v>2</v>
       </c>
+      <c r="AB22">
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2515,8 +2584,11 @@
       <c r="AA23">
         <v>4</v>
       </c>
+      <c r="AB23">
+        <v>5</v>
+      </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2598,8 +2670,11 @@
       <c r="AA24">
         <v>3</v>
       </c>
+      <c r="AB24">
+        <v>2</v>
+      </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2681,8 +2756,11 @@
       <c r="AA25">
         <v>3</v>
       </c>
+      <c r="AB25">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2764,8 +2842,11 @@
       <c r="AA26">
         <v>5</v>
       </c>
+      <c r="AB26">
+        <v>5</v>
+      </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2847,8 +2928,11 @@
       <c r="AA27">
         <v>1</v>
       </c>
+      <c r="AB27">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2930,8 +3014,11 @@
       <c r="AA28">
         <v>4</v>
       </c>
+      <c r="AB28">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3013,8 +3100,11 @@
       <c r="AA29">
         <v>1</v>
       </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -3096,8 +3186,11 @@
       <c r="AA30">
         <v>1</v>
       </c>
+      <c r="AB30">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -3179,8 +3272,11 @@
       <c r="AA31">
         <v>2</v>
       </c>
+      <c r="AB31">
+        <v>2</v>
+      </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -3262,8 +3358,11 @@
       <c r="AA32">
         <v>1</v>
       </c>
+      <c r="AB32">
+        <v>3</v>
+      </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -3345,8 +3444,11 @@
       <c r="AA33">
         <v>2</v>
       </c>
+      <c r="AB33">
+        <v>5</v>
+      </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -3428,8 +3530,11 @@
       <c r="AA34">
         <v>2</v>
       </c>
+      <c r="AB34">
+        <v>3</v>
+      </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -3511,8 +3616,11 @@
       <c r="AA35">
         <v>2</v>
       </c>
+      <c r="AB35">
+        <v>4</v>
+      </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -3594,8 +3702,11 @@
       <c r="AA36">
         <v>3</v>
       </c>
+      <c r="AB36">
+        <v>3</v>
+      </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -3677,8 +3788,11 @@
       <c r="AA37">
         <v>1</v>
       </c>
+      <c r="AB37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -3760,8 +3874,11 @@
       <c r="AA38">
         <v>1</v>
       </c>
+      <c r="AB38">
+        <v>2</v>
+      </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -3843,8 +3960,11 @@
       <c r="AA39">
         <v>1</v>
       </c>
+      <c r="AB39">
+        <v>4</v>
+      </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -3926,8 +4046,11 @@
       <c r="AA40">
         <v>1</v>
       </c>
+      <c r="AB40">
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -4009,8 +4132,11 @@
       <c r="AA41">
         <v>2</v>
       </c>
+      <c r="AB41">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -4092,8 +4218,11 @@
       <c r="AA42">
         <v>1</v>
       </c>
+      <c r="AB42">
+        <v>-99</v>
+      </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -4175,8 +4304,11 @@
       <c r="AA43">
         <v>3</v>
       </c>
+      <c r="AB43">
+        <v>3</v>
+      </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -4257,6 +4389,9 @@
       </c>
       <c r="AA44">
         <v>3</v>
+      </c>
+      <c r="AB44">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data/all_data.xlsx
+++ b/raw_data/all_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lance.noel\Desktop\important\fruit_anlaysis\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F4C171-E34D-46BC-BFED-B98B3A59DA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CF1744-94F7-47A8-BEDC-58078991F4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-10770" windowWidth="38620" windowHeight="21220" xr2:uid="{925F1497-18F4-4D72-9FB7-5853596A5A47}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Kier</t>
   </si>
@@ -248,6 +248,15 @@
   </si>
   <si>
     <t>Talia</t>
+  </si>
+  <si>
+    <t>Meridith</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Dillman</t>
   </si>
 </sst>
 </file>
@@ -599,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324CB061-CAAA-4A80-8843-E7A82ECBBAC5}">
-  <dimension ref="A1:AB44"/>
+  <dimension ref="A1:AE44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB43" sqref="AB43"/>
+      <selection activeCell="AE45" sqref="AE45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,7 +619,7 @@
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -695,8 +704,17 @@
       <c r="AB1" t="s">
         <v>70</v>
       </c>
+      <c r="AC1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -781,8 +799,17 @@
       <c r="AB2">
         <v>3</v>
       </c>
+      <c r="AC2">
+        <v>4</v>
+      </c>
+      <c r="AD2">
+        <v>5</v>
+      </c>
+      <c r="AE2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -867,8 +894,17 @@
       <c r="AB3">
         <v>5</v>
       </c>
+      <c r="AC3">
+        <v>4</v>
+      </c>
+      <c r="AD3">
+        <v>4</v>
+      </c>
+      <c r="AE3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -953,8 +989,17 @@
       <c r="AB4">
         <v>5</v>
       </c>
+      <c r="AC4">
+        <v>5</v>
+      </c>
+      <c r="AD4">
+        <v>5</v>
+      </c>
+      <c r="AE4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1039,8 +1084,17 @@
       <c r="AB5">
         <v>4</v>
       </c>
+      <c r="AC5">
+        <v>3</v>
+      </c>
+      <c r="AD5">
+        <v>5</v>
+      </c>
+      <c r="AE5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1125,8 +1179,17 @@
       <c r="AB6">
         <v>3</v>
       </c>
+      <c r="AC6">
+        <v>2</v>
+      </c>
+      <c r="AD6">
+        <v>4</v>
+      </c>
+      <c r="AE6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1211,8 +1274,17 @@
       <c r="AB7">
         <v>5</v>
       </c>
+      <c r="AC7">
+        <v>4</v>
+      </c>
+      <c r="AD7">
+        <v>5</v>
+      </c>
+      <c r="AE7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1297,8 +1369,17 @@
       <c r="AB8">
         <v>2</v>
       </c>
+      <c r="AC8">
+        <v>3</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1383,8 +1464,17 @@
       <c r="AB9">
         <v>3</v>
       </c>
+      <c r="AC9">
+        <v>3</v>
+      </c>
+      <c r="AD9">
+        <v>5</v>
+      </c>
+      <c r="AE9">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1469,8 +1559,17 @@
       <c r="AB10">
         <v>1</v>
       </c>
+      <c r="AC10">
+        <v>3</v>
+      </c>
+      <c r="AD10">
+        <v>4</v>
+      </c>
+      <c r="AE10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1555,8 +1654,17 @@
       <c r="AB11">
         <v>4</v>
       </c>
+      <c r="AC11">
+        <v>5</v>
+      </c>
+      <c r="AD11">
+        <v>4</v>
+      </c>
+      <c r="AE11">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1641,8 +1749,17 @@
       <c r="AB12">
         <v>2</v>
       </c>
+      <c r="AC12">
+        <v>2</v>
+      </c>
+      <c r="AD12">
+        <v>3</v>
+      </c>
+      <c r="AE12">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1727,8 +1844,17 @@
       <c r="AB13">
         <v>5</v>
       </c>
+      <c r="AC13">
+        <v>3</v>
+      </c>
+      <c r="AD13">
+        <v>3</v>
+      </c>
+      <c r="AE13">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1813,8 +1939,17 @@
       <c r="AB14">
         <v>4</v>
       </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>5</v>
+      </c>
+      <c r="AE14">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1899,8 +2034,17 @@
       <c r="AB15">
         <v>5</v>
       </c>
+      <c r="AC15">
+        <v>5</v>
+      </c>
+      <c r="AD15">
+        <v>5</v>
+      </c>
+      <c r="AE15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1985,8 +2129,17 @@
       <c r="AB16">
         <v>3</v>
       </c>
+      <c r="AC16">
+        <v>5</v>
+      </c>
+      <c r="AD16">
+        <v>5</v>
+      </c>
+      <c r="AE16">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2071,8 +2224,17 @@
       <c r="AB17">
         <v>4</v>
       </c>
+      <c r="AC17">
+        <v>5</v>
+      </c>
+      <c r="AD17">
+        <v>4</v>
+      </c>
+      <c r="AE17">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2157,8 +2319,17 @@
       <c r="AB18">
         <v>3</v>
       </c>
+      <c r="AC18">
+        <v>5</v>
+      </c>
+      <c r="AD18">
+        <v>4</v>
+      </c>
+      <c r="AE18">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2243,8 +2414,17 @@
       <c r="AB19">
         <v>2</v>
       </c>
+      <c r="AC19">
+        <v>2</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2329,8 +2509,17 @@
       <c r="AB20">
         <v>5</v>
       </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>2</v>
+      </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2415,8 +2604,17 @@
       <c r="AB21">
         <v>5</v>
       </c>
+      <c r="AC21">
+        <v>4</v>
+      </c>
+      <c r="AD21">
+        <v>4</v>
+      </c>
+      <c r="AE21">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2501,8 +2699,17 @@
       <c r="AB22">
         <v>2</v>
       </c>
+      <c r="AC22">
+        <v>2</v>
+      </c>
+      <c r="AD22">
+        <v>2</v>
+      </c>
+      <c r="AE22">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2587,8 +2794,17 @@
       <c r="AB23">
         <v>5</v>
       </c>
+      <c r="AC23">
+        <v>4</v>
+      </c>
+      <c r="AD23">
+        <v>3</v>
+      </c>
+      <c r="AE23">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2673,8 +2889,17 @@
       <c r="AB24">
         <v>2</v>
       </c>
+      <c r="AC24">
+        <v>3</v>
+      </c>
+      <c r="AD24">
+        <v>2</v>
+      </c>
+      <c r="AE24">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2759,8 +2984,17 @@
       <c r="AB25">
         <v>3</v>
       </c>
+      <c r="AC25">
+        <v>5</v>
+      </c>
+      <c r="AD25">
+        <v>5</v>
+      </c>
+      <c r="AE25">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2845,8 +3079,17 @@
       <c r="AB26">
         <v>5</v>
       </c>
+      <c r="AC26">
+        <v>4</v>
+      </c>
+      <c r="AD26">
+        <v>2</v>
+      </c>
+      <c r="AE26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2931,8 +3174,17 @@
       <c r="AB27">
         <v>4</v>
       </c>
+      <c r="AC27">
+        <v>4</v>
+      </c>
+      <c r="AD27">
+        <v>3</v>
+      </c>
+      <c r="AE27">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3017,8 +3269,17 @@
       <c r="AB28">
         <v>4</v>
       </c>
+      <c r="AC28">
+        <v>4</v>
+      </c>
+      <c r="AD28">
+        <v>3</v>
+      </c>
+      <c r="AE28">
+        <v>2</v>
+      </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3103,8 +3364,17 @@
       <c r="AB29">
         <v>1</v>
       </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29">
+        <v>2</v>
+      </c>
+      <c r="AE29">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -3189,8 +3459,17 @@
       <c r="AB30">
         <v>4</v>
       </c>
+      <c r="AC30">
+        <v>1</v>
+      </c>
+      <c r="AD30">
+        <v>3</v>
+      </c>
+      <c r="AE30">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -3275,8 +3554,17 @@
       <c r="AB31">
         <v>2</v>
       </c>
+      <c r="AC31">
+        <v>3</v>
+      </c>
+      <c r="AD31">
+        <v>2</v>
+      </c>
+      <c r="AE31">
+        <v>2</v>
+      </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -3361,8 +3649,17 @@
       <c r="AB32">
         <v>3</v>
       </c>
+      <c r="AC32">
+        <v>3</v>
+      </c>
+      <c r="AD32">
+        <v>2</v>
+      </c>
+      <c r="AE32">
+        <v>3</v>
+      </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -3447,8 +3744,17 @@
       <c r="AB33">
         <v>5</v>
       </c>
+      <c r="AC33">
+        <v>4</v>
+      </c>
+      <c r="AD33">
+        <v>3</v>
+      </c>
+      <c r="AE33">
+        <v>3</v>
+      </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -3533,8 +3839,17 @@
       <c r="AB34">
         <v>3</v>
       </c>
+      <c r="AC34">
+        <v>4</v>
+      </c>
+      <c r="AD34">
+        <v>3</v>
+      </c>
+      <c r="AE34">
+        <v>3</v>
+      </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -3619,8 +3934,17 @@
       <c r="AB35">
         <v>4</v>
       </c>
+      <c r="AC35">
+        <v>1</v>
+      </c>
+      <c r="AD35">
+        <v>4</v>
+      </c>
+      <c r="AE35">
+        <v>2</v>
+      </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -3705,8 +4029,17 @@
       <c r="AB36">
         <v>3</v>
       </c>
+      <c r="AC36">
+        <v>2</v>
+      </c>
+      <c r="AD36">
+        <v>2</v>
+      </c>
+      <c r="AE36">
+        <v>3</v>
+      </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -3791,8 +4124,17 @@
       <c r="AB37">
         <v>1</v>
       </c>
+      <c r="AC37">
+        <v>3</v>
+      </c>
+      <c r="AD37">
+        <v>4</v>
+      </c>
+      <c r="AE37">
+        <v>5</v>
+      </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -3877,8 +4219,17 @@
       <c r="AB38">
         <v>2</v>
       </c>
+      <c r="AC38">
+        <v>2</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>3</v>
+      </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -3963,8 +4314,17 @@
       <c r="AB39">
         <v>4</v>
       </c>
+      <c r="AC39">
+        <v>2</v>
+      </c>
+      <c r="AD39">
+        <v>5</v>
+      </c>
+      <c r="AE39">
+        <v>4</v>
+      </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -4049,8 +4409,17 @@
       <c r="AB40">
         <v>1</v>
       </c>
+      <c r="AC40">
+        <v>4</v>
+      </c>
+      <c r="AD40">
+        <v>2</v>
+      </c>
+      <c r="AE40">
+        <v>3</v>
+      </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -4135,8 +4504,17 @@
       <c r="AB41">
         <v>1</v>
       </c>
+      <c r="AC41">
+        <v>2</v>
+      </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -4221,8 +4599,17 @@
       <c r="AB42">
         <v>-99</v>
       </c>
+      <c r="AC42">
+        <v>2</v>
+      </c>
+      <c r="AD42">
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <v>2</v>
+      </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -4307,8 +4694,17 @@
       <c r="AB43">
         <v>3</v>
       </c>
+      <c r="AC43">
+        <v>1</v>
+      </c>
+      <c r="AD43">
+        <v>1</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -4392,6 +4788,15 @@
       </c>
       <c r="AB44">
         <v>2</v>
+      </c>
+      <c r="AC44">
+        <v>1</v>
+      </c>
+      <c r="AD44">
+        <v>3</v>
+      </c>
+      <c r="AE44">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
